--- a/medicine/Handicap/Jimmie/Jimmie.xlsx
+++ b/medicine/Handicap/Jimmie/Jimmie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jimmie est un téléfilm suisse développé et écrit par Thomas Peter et réalisé par Tobias Ineichen, sorti en 2008[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jimmie est un téléfilm suisse développé et écrit par Thomas Peter et réalisé par Tobias Ineichen, sorti en 2008.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kathy Berger est la mère célibataire de Jimmie, un jeune autiste de 16 ans qui ne parle pas et dont la passion est la natation. Elle ne veut pas le placer dans un foyer, mais le ramène chez elle à la fin de sa scolarité, contre la volonté de son ex-mari Michael. La relation avec ce dernier s'avère difficile. Lorsque l'entraîneur de natation Jan Ambühl découvre le talent de nageur de Jimmie, il l'engage comme motivateur pour son relais de nage libre. Mais Jimmie n'est pas accepté par les nageurs.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Jimmie
 Réalisation : Tobias Ineichen
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stephanie Japp : Kathy Berger
 Joel Basman : Jimmie Berger
@@ -629,9 +647,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2008 : Prix Swissperform du meilleur acteur pour Joel Basman au Festival international du film de Genève[2]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2008 : Prix Swissperform du meilleur acteur pour Joel Basman au Festival international du film de Genève
 2008 : Prix Swissperform de la meilleure actrice pour Stephanie Japp au Festival international du film de Genève
 2008 : Prix Swissperform du meilleur film de télévision suisse au Festival international du film de Genève</t>
         </is>
